--- a/water-fall/20_設計/20_タスク管理システム_画面・機能_W010_ユーザー登録_v1.0.xlsx
+++ b/water-fall/20_設計/20_タスク管理システム_画面・機能_W010_ユーザー登録_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\20_設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AE6222-D633-4D31-87DB-15645BB0C5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B64981-D9D1-44E5-9C6C-9A7EF4F1AF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{67B6CA78-3CE2-42D8-B2E6-930FEDCB7716}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{67B6CA78-3CE2-42D8-B2E6-930FEDCB7716}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Ver.</t>
     <phoneticPr fontId="1"/>
@@ -160,6 +160,259 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>W010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動シナリオID</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動シナリオ名称</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[F001]認証済みか確認する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[F002]ユーザー名とパスワードを照合する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[F003]エラーメッセージを表示する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[F004]ユーザー名とパスワードを保存する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[F005]エラーメッセージを表示する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookieの認証情報（JWT）</t>
+    <rPh sb="7" eb="9">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックエンドサーバーにJWTが有効か問い合わせる。</t>
+    <rPh sb="15" eb="17">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユーザー名
+・パスワード</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面名称</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面ID</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント作成画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックエンドサーバーにユーザー名とパスワードが正しいか問い合わせる。</t>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名とパスワードの照合NG結果</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックエンドサーバーにユーザー名とパスワードを保存するためのリクエストを送る。</t>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証リクエスト結果（認証済み or 未認証）</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ミニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>照合リクエスト結果（OK or NG）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>照合リクエストのNG結果の内容を画面に表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存リクエスト結果（OK or NG）</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名とパスワードの保存NG結果</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存リクエストのNG結果の内容を画面に表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -199,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,8 +465,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -236,13 +501,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,6 +569,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -275,6 +592,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFEAEAEA"/>
+      <color rgb="FFCCECFF"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF0000CC"/>
@@ -485,7 +805,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-            <a:t>V020:</a:t>
+            <a:t>S020:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
@@ -890,8 +1210,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5971934" y="528547"/>
-          <a:ext cx="4667242" cy="3673478"/>
+          <a:off x="5912557" y="512466"/>
+          <a:ext cx="4620235" cy="3428550"/>
           <a:chOff x="3497035" y="527186"/>
           <a:chExt cx="4537973" cy="3600000"/>
         </a:xfrm>
@@ -1238,16 +1558,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>76040</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>221080</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>175856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>98453</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:colOff>1038</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>86209</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1262,8 +1582,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9959628" y="5367617"/>
-          <a:ext cx="1434354" cy="705971"/>
+          <a:off x="10161716" y="8990811"/>
+          <a:ext cx="1477140" cy="672353"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -1293,7 +1613,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -1308,16 +1628,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>96052</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>121665</xdr:rowOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>241091</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>96611</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>59472</xdr:rowOff>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>241651</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>156887</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1332,8 +1652,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16568699" y="5410841"/>
-          <a:ext cx="1647824" cy="542925"/>
+          <a:off x="16970455" y="9034035"/>
+          <a:ext cx="1697741" cy="509307"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1366,13 +1686,13 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>V030:</a:t>
+            <a:t>S030:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1386,15 +1706,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>176894</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:colOff>83808</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>119826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
-      <xdr:colOff>148880</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>55795</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>21214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1409,8 +1729,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13825659" y="5513293"/>
-          <a:ext cx="1619250" cy="495300"/>
+          <a:off x="14146172" y="9125281"/>
+          <a:ext cx="1669168" cy="472888"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -1445,6 +1765,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[F002]</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>ユーザー名とパスワードを照合する。</a:t>
           </a:r>
@@ -1456,15 +1780,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>121190</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>164087</xdr:rowOff>
+      <xdr:colOff>28105</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>71002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>118372</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>91033</xdr:rowOff>
+      <xdr:colOff>20957</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>188448</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1479,8 +1803,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11887366" y="5453263"/>
-          <a:ext cx="1409124" cy="532064"/>
+          <a:off x="12150832" y="9076457"/>
+          <a:ext cx="1447580" cy="498446"/>
         </a:xfrm>
         <a:prstGeom prst="star12">
           <a:avLst/>
@@ -1613,8 +1937,8 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>164408</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38899</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>135355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -1635,8 +1959,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2783783" y="5887249"/>
-          <a:ext cx="1638860" cy="494340"/>
+          <a:off x="2811355" y="5519487"/>
+          <a:ext cx="1656406" cy="569334"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -1666,10 +1990,14 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[F001]</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>認証済みか確認する。</a:t>
@@ -1682,15 +2010,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2723</xdr:colOff>
+      <xdr:colOff>13546</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>183696</xdr:rowOff>
+      <xdr:rowOff>183697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>71802</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>17474</xdr:rowOff>
+      <xdr:colOff>60978</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>106611</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1705,10 +2033,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2941866" y="7572375"/>
-          <a:ext cx="1293722" cy="1262528"/>
-          <a:chOff x="8942381" y="4086224"/>
-          <a:chExt cx="1301893" cy="1257775"/>
+          <a:off x="2923001" y="7093652"/>
+          <a:ext cx="1259704" cy="1065914"/>
+          <a:chOff x="8953378" y="4086224"/>
+          <a:chExt cx="1279899" cy="1148552"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -1759,8 +2087,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8942381" y="4775123"/>
-            <a:ext cx="1301893" cy="568876"/>
+            <a:off x="8953378" y="4884346"/>
+            <a:ext cx="1279899" cy="350430"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1797,13 +2125,6 @@
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>（認証）</a:t>
-            </a:r>
-          </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
@@ -1814,13 +2135,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>78672</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>47998</xdr:rowOff>
+      <xdr:rowOff>39022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>164408</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>86044</xdr:rowOff>
+      <xdr:rowOff>52760</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1837,9 +2158,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2221797" y="6096373"/>
-          <a:ext cx="561986" cy="38046"/>
+        <a:xfrm flipV="1">
+          <a:off x="2244356" y="5804154"/>
+          <a:ext cx="566999" cy="13738"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -1871,15 +2192,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>150118</xdr:colOff>
+      <xdr:colOff>151311</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>133189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>31339</xdr:colOff>
+      <xdr:colOff>30085</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>183697</xdr:rowOff>
+      <xdr:rowOff>183696</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1897,8 +2218,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="3018224" y="6847233"/>
-          <a:ext cx="1050633" cy="119346"/>
+          <a:off x="3078352" y="6530622"/>
+          <a:ext cx="1003007" cy="119406"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -1932,13 +2253,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>136393</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>86044</xdr:rowOff>
+      <xdr:rowOff>39022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>120863</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>3922</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1956,8 +2277,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4372217" y="6182044"/>
-          <a:ext cx="1396411" cy="321290"/>
+          <a:off x="4467761" y="5804154"/>
+          <a:ext cx="1428260" cy="351503"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -2111,13 +2432,13 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>V030:</a:t>
+            <a:t>S030:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -2133,13 +2454,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>136393</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>86044</xdr:rowOff>
+      <xdr:rowOff>39022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>221717</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>170611</xdr:rowOff>
+      <xdr:rowOff>165008</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2157,8 +2478,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4372217" y="6182044"/>
-          <a:ext cx="1026618" cy="2908449"/>
+          <a:off x="4467761" y="5804154"/>
+          <a:ext cx="1047851" cy="2792986"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -2256,14 +2577,14 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>229639</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28015</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>76040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>3922</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>221080</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>131033</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2280,9 +2601,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8936610" y="5720603"/>
-          <a:ext cx="1023018" cy="782731"/>
+        <a:xfrm>
+          <a:off x="9200457" y="6157480"/>
+          <a:ext cx="961259" cy="3169508"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -2314,15 +2635,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>98453</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>26707</xdr:rowOff>
+      <xdr:colOff>1038</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>124122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>121190</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28015</xdr:rowOff>
+      <xdr:colOff>28105</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>125430</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2340,8 +2661,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11393982" y="5719295"/>
-          <a:ext cx="493384" cy="1308"/>
+          <a:off x="11638856" y="9320077"/>
+          <a:ext cx="511976" cy="1308"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -2372,16 +2693,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>40423</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>185463</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>21214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>71710</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>6803</xdr:rowOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>216750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104218</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2399,8 +2720,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="14887172" y="6413050"/>
-          <a:ext cx="708932" cy="31287"/>
+          <a:off x="14663582" y="9909777"/>
+          <a:ext cx="654504" cy="31287"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -2432,15 +2753,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>59</xdr:col>
-      <xdr:colOff>166009</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>6803</xdr:rowOff>
+      <xdr:colOff>83747</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>235088</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>44688</xdr:rowOff>
+      <xdr:colOff>131178</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>37663</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2455,10 +2776,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14616795" y="6783160"/>
-          <a:ext cx="1293722" cy="1262528"/>
-          <a:chOff x="8942381" y="4086224"/>
-          <a:chExt cx="1301893" cy="1257775"/>
+          <a:off x="14388565" y="10252675"/>
+          <a:ext cx="1259704" cy="1076443"/>
+          <a:chOff x="8953378" y="4086224"/>
+          <a:chExt cx="1279899" cy="1146532"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -2509,8 +2830,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8942381" y="4775123"/>
-            <a:ext cx="1301893" cy="568876"/>
+            <a:off x="8953378" y="4886364"/>
+            <a:ext cx="1279899" cy="346392"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2547,13 +2868,6 @@
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>（認証）</a:t>
-            </a:r>
-          </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
@@ -2562,15 +2876,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>118372</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>25507</xdr:rowOff>
+      <xdr:colOff>20957</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>122922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>176894</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>68356</xdr:rowOff>
+      <xdr:colOff>83808</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165771</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2588,8 +2902,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13834372" y="5781328"/>
-          <a:ext cx="548379" cy="42849"/>
+          <a:off x="13598412" y="9318877"/>
+          <a:ext cx="547760" cy="42849"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -2621,15 +2935,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>70</xdr:col>
-      <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>141674</xdr:rowOff>
+      <xdr:colOff>14645</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>48589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>93650</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>31858</xdr:rowOff>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>238690</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>129273</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2644,8 +2958,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16584707" y="6641086"/>
-          <a:ext cx="1628855" cy="495301"/>
+          <a:off x="16986463" y="10197044"/>
+          <a:ext cx="1678772" cy="461684"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -2680,6 +2994,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[F003]</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>エラーメッセージを表示する。</a:t>
           </a:r>
@@ -2691,15 +3009,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>65</xdr:col>
-      <xdr:colOff>148880</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>191422</xdr:rowOff>
+      <xdr:colOff>55795</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>98337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>96052</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>68355</xdr:rowOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>241091</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165770</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2717,8 +3035,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="15444909" y="5682304"/>
-          <a:ext cx="1123790" cy="78639"/>
+          <a:off x="15815340" y="9294292"/>
+          <a:ext cx="1155115" cy="67433"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -2750,15 +3068,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>65</xdr:col>
-      <xdr:colOff>148880</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>68355</xdr:rowOff>
+      <xdr:colOff>55795</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
-      <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>187619</xdr:rowOff>
+      <xdr:colOff>14645</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>94534</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2776,8 +3094,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15444909" y="5760943"/>
-          <a:ext cx="1139798" cy="1127794"/>
+          <a:off x="15815340" y="9361725"/>
+          <a:ext cx="1171123" cy="1071764"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -2809,9 +3127,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>119342</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>195543</xdr:rowOff>
+      <xdr:colOff>26257</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>97695</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="667490" cy="325217"/>
     <xdr:sp macro="" textlink="">
@@ -2827,7 +3145,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15650695" y="5283014"/>
+          <a:off x="16028257" y="8912650"/>
           <a:ext cx="667490" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2878,10 +3196,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>52106</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>72278</xdr:rowOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>197146</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>169693</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="674095" cy="325217"/>
     <xdr:sp macro="" textlink="">
@@ -2897,7 +3215,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15583459" y="6773396"/>
+          <a:off x="15956691" y="10318148"/>
           <a:ext cx="674095" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2948,16 +3266,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>222043</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>119262</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>25266</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>112333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>219226</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>46209</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>22448</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>39280</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2972,8 +3290,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10105631" y="8232321"/>
-          <a:ext cx="1409124" cy="532064"/>
+          <a:off x="10264641" y="5874958"/>
+          <a:ext cx="1425932" cy="498447"/>
         </a:xfrm>
         <a:prstGeom prst="star12">
           <a:avLst/>
@@ -3106,14 +3424,14 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>229639</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>3922</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>222043</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>183588</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>25266</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3130,9 +3448,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8936610" y="6503334"/>
-          <a:ext cx="1169021" cy="1995019"/>
+        <a:xfrm flipV="1">
+          <a:off x="9040264" y="6124182"/>
+          <a:ext cx="1224377" cy="28968"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -3161,92 +3479,228 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>107155</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>73602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>179736</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>73153</xdr:rowOff>
     </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{066A360F-61FC-4611-ABC1-EAD4462728C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12489655" y="502227"/>
+          <a:ext cx="3168206" cy="3428551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1371326" cy="359815"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="テキスト ボックス 109">
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F1FD27-AA25-F7E1-CCC7-DDA85F454E42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B6BAD2F-3E5E-4D8A-AD4A-D95722EDA89D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="20700000">
-          <a:off x="10847294" y="8606117"/>
-          <a:ext cx="2947147" cy="1042147"/>
+        <a:xfrm>
+          <a:off x="5974772" y="207818"/>
+          <a:ext cx="1371326" cy="359815"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln/>
+        <a:solidFill>
+          <a:srgbClr val="99CCFF">
+            <a:alpha val="49804"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
-            <a:t>ここから</a:t>
-          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>S020:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ログイン画面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>180758</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>225136</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1760024" cy="359815"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E09EE86A-8362-4780-8592-9D7CE2409755}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12563258" y="225136"/>
+          <a:ext cx="1760024" cy="359815"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="99CCFF">
+            <a:alpha val="49804"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>S010:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アカウント作成画面 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>87925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>35100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>168551</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>53837</xdr:rowOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>192373</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="星: 12 pt 1">
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B26B42-13A8-4419-81ED-03C4B261A729}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C4FE4E-CC52-71C0-A924-871912C0C3CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3254,8 +3708,840 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1133475" y="723900"/>
-          <a:ext cx="1416326" cy="530087"/>
+          <a:off x="12695561" y="4468555"/>
+          <a:ext cx="3256357" cy="3352800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>S010:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>アカウント作成画面 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>---- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>---- ---- ---- ---- ---- ---- ---- ---- ----</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sign Up</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（タイトル）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>UserName</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Password</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>---- ---- ---- ---- ---- ---- ---- ---- ---- ----</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・ユーザー名</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・パスワード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>---- ---- ---- ---- ---- ---- ---- ---- ---- ----</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>操作</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Create</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> an account</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」ボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Login</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」リンク</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>22448</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>87925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>187500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BDED227-2024-FB47-9BFA-CF156B15880C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="106" idx="1"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11690573" y="6124182"/>
+          <a:ext cx="779852" cy="16443"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>207819</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>43296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>135704</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>162525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="吹き出し: 線 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42E38A7-35C0-4E8D-A9E9-3B1803643BB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16209819" y="3143251"/>
+          <a:ext cx="1140158" cy="309729"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58750"/>
+            <a:gd name="adj2" fmla="val -5000"/>
+            <a:gd name="adj3" fmla="val 143810"/>
+            <a:gd name="adj4" fmla="val -89230"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="49804"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Login</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」リンク</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>230231</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>101082</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="フローチャート: 手操作入力 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFF075EB-9C68-44ED-99E7-DEBBA7617E0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16937182" y="5576684"/>
+          <a:ext cx="1477140" cy="672353"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザー名とパスワードを入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>223067</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>223626</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="四角形: 角を丸くする 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF7C1B0-D34F-420E-A61E-F50955839184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23741158" y="5619908"/>
+          <a:ext cx="1697741" cy="509307"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>S020:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン画面 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>70547</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>42533</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>36087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="フローチャート: 端子 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50412A3-27FA-480F-BB88-D63685BB31CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20921638" y="5711154"/>
+          <a:ext cx="1669168" cy="472888"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" tIns="72000" bIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[F004]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザー名とパスワードを保存する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>14843</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>7696</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="星: 12 pt 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320AD786-451B-4AF0-85BE-A00500F5E6C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18926298" y="5662330"/>
+          <a:ext cx="1447580" cy="498446"/>
         </a:xfrm>
         <a:prstGeom prst="star12">
           <a:avLst/>
@@ -3305,8 +4591,80 @@
                 </a:glow>
               </a:effectLst>
             </a:rPr>
-            <a:t>トリガー</a:t>
-          </a:r>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="bg1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Create an account</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="bg1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow rad="101600">
+                <a:schemeClr val="bg1">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="bg1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ボタンをクリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow rad="101600">
+                <a:schemeClr val="bg1">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3314,35 +4672,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>193677</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>130173</xdr:rowOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>230231</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>138995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>206377</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47761</xdr:rowOff>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>14843</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>140303</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B532C5F4-6BBC-4F00-95DC-45D5C9398984}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D84EF8E4-F930-49BE-A414-50655B034D8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="3"/>
+          <a:endCxn id="45" idx="7"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2798695" y="982730"/>
-          <a:ext cx="517663" cy="12700"/>
+        <a:xfrm flipV="1">
+          <a:off x="18414322" y="5905950"/>
+          <a:ext cx="511976" cy="1308"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
           <a:headEnd type="none" w="med" len="med"/>
@@ -3368,23 +4731,264 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>175602</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>36087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>211388</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>119091</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534C3A59-6D12-467F-B3B0-08F9E86606B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="21444698" y="6493401"/>
+          <a:ext cx="654504" cy="35786"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>70486</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>119093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>117917</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>52536</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="49" name="グループ化 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF680CD-05D2-4B5A-B198-FC55B1394D7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="21164031" y="6838548"/>
+          <a:ext cx="1259704" cy="1076443"/>
+          <a:chOff x="8953378" y="4086224"/>
+          <a:chExt cx="1279899" cy="1146532"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="50" name="図 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C880993-D7C5-02E8-2694-516DC6733E36}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9220200" y="4086224"/>
+            <a:ext cx="733425" cy="733425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="テキスト ボックス 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F135D8-0466-4272-4C83-5FB4037B18A1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8953378" y="4886364"/>
+            <a:ext cx="1279899" cy="346392"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>バックエンドサーバー</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>7696</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>137795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>70547</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180644</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE22091F-77E3-4839-8B3C-4961B55F1F11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="1"/>
+          <a:endCxn id="43" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20373878" y="5904750"/>
+          <a:ext cx="547760" cy="42849"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>1384</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>225428</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>144146</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="楕円 4">
+        <xdr:cNvPr id="53" name="フローチャート: 端子 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09C1317-B598-7D14-5C69-1385FFB04925}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{706281BC-E79F-421E-B8B0-0D9DF6CCDFC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3392,8 +4996,399 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1695450" y="1533525"/>
-          <a:ext cx="161925" cy="161925"/>
+          <a:off x="23761929" y="6782917"/>
+          <a:ext cx="1678772" cy="461684"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" tIns="72000" bIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[F005]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エラーメッセージを表示する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>42533</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>113210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>223067</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180643</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49107B0-3F06-4F5B-9F09-97F17832CDEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="3"/>
+          <a:endCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="22590806" y="5880165"/>
+          <a:ext cx="1150352" cy="67433"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>42533</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>1384</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109407</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E72A7C8-A9A1-4BFB-A5DD-E377BB3F7157}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="3"/>
+          <a:endCxn id="53" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22590806" y="5947598"/>
+          <a:ext cx="1171123" cy="1071764"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>12996</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="667490" cy="325217"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707593BA-3FB6-4D78-A310-5328D0FB2117}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22803723" y="5498523"/>
+          <a:ext cx="667490" cy="325217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F2F2F2">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>保存</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>183884</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>184566</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="885692" cy="325217"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EC3D0D-5413-4B84-9154-FF814EB01621}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22732157" y="6904021"/>
+          <a:ext cx="885692" cy="325217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F2F2F2">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>保存</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NG(*)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>192373</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>145906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>187500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9367CDDF-5D24-9397-A690-7C94F354CFE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="41" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15951918" y="5912861"/>
+          <a:ext cx="985264" cy="232094"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>216477</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>135948</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>186418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="楕円 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A313EE4A-05D8-42A4-A163-83D4AD8EB93E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12360853" y="5034644"/>
+          <a:ext cx="157595" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3432,12 +5427,1039 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>181841</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>101311</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>186418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="楕円 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBB0992-5BB7-FFE1-51C4-8EA372358C17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8992467" y="5034644"/>
+          <a:ext cx="157594" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="BFBFBF">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>203643</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>200825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171084</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="星: 12 pt 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539F92CC-802A-F5E8-1A3A-26E0D9D25FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10386734" y="4868092"/>
+          <a:ext cx="1451909" cy="498447"/>
+        </a:xfrm>
+        <a:prstGeom prst="star12">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="bg1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="bg1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Login</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="bg1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>」リンク</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow rad="101600">
+                <a:schemeClr val="bg1">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="bg1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>をクリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow rad="101600">
+                <a:schemeClr val="bg1">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>200825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>110217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>216477</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>112360</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8212A138-5F37-78B0-C1D9-B11DF4865F23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="2"/>
+          <a:endCxn id="74" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11838643" y="5115172"/>
+          <a:ext cx="743016" cy="2143"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>101311</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>110219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>203643</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>112362</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB41F58-EC35-2EC5-75C2-5701A9DCC2AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="7"/>
+          <a:endCxn id="70" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="9314584" y="5115174"/>
+          <a:ext cx="1072150" cy="2143"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3900748" cy="790986"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="テキスト ボックス 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{241A635D-5E06-4EF9-B387-E704904B5EA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22353444" y="7407854"/>
+          <a:ext cx="3900748" cy="790986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F2F2F2">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(*)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>保存</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の条件</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・既に同じユーザー名が登録されている。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ユーザーもしくはパスワードの文字数が最低文字数に達していない。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>25978</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>151535</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>172316</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="円柱 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A93045-48A2-49C2-B893-CEDA27BF735F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14573251" y="11949546"/>
+          <a:ext cx="1095375" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>112569</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>16453</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="円柱 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA1677B-D61B-AE3B-7369-E00232C69B3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3022024" y="8745683"/>
+          <a:ext cx="1095375" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>147206</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>30308</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>33770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="円柱 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C5430C-BBEA-D013-C303-A16210D6FD29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21240751" y="8382000"/>
+          <a:ext cx="1095375" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>158490</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>106611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>175349</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7D33E0-4D98-088D-0FC4-934B2CB024F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="119" idx="1"/>
+          <a:endCxn id="38" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3268225" y="8444195"/>
+          <a:ext cx="586117" cy="16859"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>228690</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>37663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>88757</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B61506-DDC4-D317-97FF-AF4543F7A509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="114" idx="1"/>
+          <a:endCxn id="85" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="14759464" y="11588071"/>
+          <a:ext cx="620428" cy="102522"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>209985</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>52535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>215429</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>138544</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8907632-F2B1-6138-F92F-DB8D8DAF46B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="2"/>
+          <a:endCxn id="120" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="21557657" y="8145773"/>
+          <a:ext cx="467009" cy="5444"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>92528</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>55789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>80104</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="星: 12 pt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B26B42-13A8-4419-81ED-03C4B261A729}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="806904" y="627289"/>
+          <a:ext cx="1416326" cy="501512"/>
+        </a:xfrm>
+        <a:prstGeom prst="star12">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="bg1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>トリガー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>105230</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>62137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>117930</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>170225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B532C5F4-6BBC-4F00-95DC-45D5C9398984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2486412" y="871831"/>
+          <a:ext cx="489088" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>178254</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>102055</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09C1317-B598-7D14-5C69-1385FFB04925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1368880" y="1398814"/>
+          <a:ext cx="161925" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="BFBFBF">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>149680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="631327" cy="325217"/>
     <xdr:sp macro="" textlink="">
@@ -3453,7 +6475,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4286251" y="714375"/>
+          <a:off x="3959680" y="617764"/>
           <a:ext cx="631327" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3500,10 +6522,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>168730</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>84364</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1174255" cy="359815"/>
     <xdr:sp macro="" textlink="">
@@ -3519,7 +6541,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4305301" y="1152525"/>
+          <a:off x="3978730" y="1036864"/>
           <a:ext cx="1174255" cy="359815"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3574,16 +6596,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>131989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>74839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3598,8 +6620,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1095376" y="2009775"/>
-          <a:ext cx="3295650" cy="4333875"/>
+          <a:off x="768805" y="1846489"/>
+          <a:ext cx="3295650" cy="4133850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3627,7 +6649,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -3951,16 +6973,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>130630</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>93889</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>83003</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3975,8 +6997,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5219700" y="2962275"/>
-          <a:ext cx="1619250" cy="495300"/>
+          <a:off x="4893130" y="2760889"/>
+          <a:ext cx="1619249" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -4006,10 +7028,22 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID}]</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>処理</a:t>
@@ -4021,16 +7055,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>102053</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>93889</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>54430</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4045,8 +7079,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334250" y="2962275"/>
-          <a:ext cx="1619250" cy="495300"/>
+          <a:off x="7007679" y="2760889"/>
+          <a:ext cx="1619251" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -4076,7 +7110,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -4091,16 +7125,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>197304</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>102053</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>65314</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4115,8 +7149,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5286375" y="4038600"/>
-          <a:ext cx="1095375" cy="495300"/>
+          <a:off x="4959804" y="3780064"/>
+          <a:ext cx="1095375" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -4146,7 +7180,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -4161,16 +7195,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>178254</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>83005</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>17689</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4185,8 +7219,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7410450" y="3990975"/>
-          <a:ext cx="1095375" cy="895350"/>
+          <a:off x="7083880" y="3741964"/>
+          <a:ext cx="1095375" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -4216,10 +7250,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>データストア</a:t>
@@ -4231,10 +7265,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>102053</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="325217"/>
     <xdr:sp macro="" textlink="">
@@ -4250,7 +7284,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6381750" y="790575"/>
+          <a:off x="6055179" y="693964"/>
           <a:ext cx="466794" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
@@ -4310,16 +7344,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>140155</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>46264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>121103</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4334,8 +7368,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5229225" y="2114550"/>
-          <a:ext cx="1647825" cy="542925"/>
+          <a:off x="4902655" y="1951264"/>
+          <a:ext cx="1647824" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4368,7 +7402,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -4383,16 +7417,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>180976</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>92531</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>17688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>11930</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>161609</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>163292</xdr:rowOff>
+      <xdr:rowOff>95256</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4407,8 +7441,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8991601" y="4086224"/>
-          <a:ext cx="1259704" cy="1077693"/>
+          <a:off x="8665031" y="3827688"/>
+          <a:ext cx="1259704" cy="1030068"/>
           <a:chOff x="8991601" y="4086224"/>
           <a:chExt cx="1259704" cy="1077693"/>
         </a:xfrm>
@@ -4501,6 +7535,60 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>227695</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>62137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2271</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>170225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2FE334-C388-A8B4-C572-F38F55217068}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3085127" y="871831"/>
+          <a:ext cx="489088" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4733,14 +7821,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.5546875" customWidth="1"/>
     <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="4" max="5" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4757,7 +7845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -4774,42 +7862,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4824,19 +7912,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EC4E20-36D4-48CB-A0EF-D13A80763775}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4847,127 +7973,231 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D8219D-936F-469F-BEE2-6DDDCA5CA043}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="5" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" customWidth="1"/>
-    <col min="9" max="9" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.0546875" customWidth="1"/>
+    <col min="9" max="9" width="40.6640625" customWidth="1"/>
+    <col min="10" max="10" width="24.88671875" customWidth="1"/>
+    <col min="11" max="11" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.45">
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f>MID(E4,2,4)</f>
+        <v>F001</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.45">
       <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f t="shared" ref="F5:F8" si="0">MID(E5,2,4)</f>
+        <v>F002</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.45">
       <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>F003</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>F004</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>F005</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="4"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="4"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="4"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4979,11 +8209,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B25A43-FD43-48C9-8DF7-DA5F91EB871C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AU6" sqref="AU6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/water-fall/20_設計/20_タスク管理システム_画面・機能_W010_ユーザー登録_v1.0.xlsx
+++ b/water-fall/20_設計/20_タスク管理システム_画面・機能_W010_ユーザー登録_v1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\20_設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B64981-D9D1-44E5-9C6C-9A7EF4F1AF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A2A30A-0473-46D8-BD1A-EC1543D94E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{67B6CA78-3CE2-42D8-B2E6-930FEDCB7716}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{67B6CA78-3CE2-42D8-B2E6-930FEDCB7716}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Ver.</t>
     <phoneticPr fontId="1"/>
@@ -324,35 +324,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>認証リクエスト結果（認証済み or 未認証）</t>
-    <rPh sb="0" eb="2">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ミニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>照合リクエスト結果（OK or NG）</t>
-    <rPh sb="0" eb="2">
-      <t>ショウゴウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>照合リクエストのNG結果の内容を画面に表示する。</t>
     <rPh sb="0" eb="2">
       <t>ショウゴウ</t>
@@ -368,16 +339,6 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保存リクエスト結果（OK or NG）</t>
-    <rPh sb="0" eb="2">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -410,6 +371,55 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証済みかどうかで画面遷移先を変える。
+・認証済み→タスク画面
+・未認証→ログイン画面</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>センイサキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ミニンショウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名とパスワード照合結果（OK or NG）</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -592,9 +602,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCECFF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFEAEAEA"/>
-      <color rgb="FFCCECFF"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF0000CC"/>
@@ -1210,8 +1220,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5912557" y="512466"/>
-          <a:ext cx="4620235" cy="3428550"/>
+          <a:off x="5971934" y="528547"/>
+          <a:ext cx="4667242" cy="3673478"/>
           <a:chOff x="3497035" y="527186"/>
           <a:chExt cx="4537973" cy="3600000"/>
         </a:xfrm>
@@ -1735,6 +1745,9 @@
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCECFF"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="bg1">
@@ -1965,6 +1978,9 @@
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCECFF"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="bg1">
@@ -2005,129 +2021,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>13546</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>183697</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>60978</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>106611</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="34" name="グループ化 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29B85630-5BFA-471E-8025-0136419F940B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2923001" y="7093652"/>
-          <a:ext cx="1259704" cy="1065914"/>
-          <a:chOff x="8953378" y="4086224"/>
-          <a:chExt cx="1279899" cy="1148552"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="37" name="図 36">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773FDA02-B588-6CFC-CCFD-02A769290811}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9220200" y="4086224"/>
-            <a:ext cx="733425" cy="733425"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="テキスト ボックス 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56AF63F8-7B97-95E9-CBA6-32607EA7D0BF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8953378" y="4884346"/>
-            <a:ext cx="1279899" cy="350430"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>バックエンドサーバー</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2192,15 +2085,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>151311</xdr:colOff>
+      <xdr:colOff>131485</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>133189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>30085</xdr:colOff>
+      <xdr:colOff>30303</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>183696</xdr:rowOff>
+      <xdr:rowOff>182216</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2212,14 +2105,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="37" idx="0"/>
+          <a:stCxn id="13" idx="0"/>
           <a:endCxn id="33" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="3078352" y="6530622"/>
-          <a:ext cx="1003007" cy="119406"/>
+          <a:off x="3042261" y="6797109"/>
+          <a:ext cx="1042940" cy="139014"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -2694,15 +2587,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>185463</xdr:colOff>
+      <xdr:colOff>189462</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>21214</xdr:rowOff>
+      <xdr:rowOff>21215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>216750</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>104218</xdr:rowOff>
+      <xdr:colOff>189899</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>24849</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2714,14 +2607,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="84" idx="0"/>
+          <a:stCxn id="26" idx="0"/>
           <a:endCxn id="24" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="14663582" y="9909777"/>
-          <a:ext cx="654504" cy="31287"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="14442233" y="10409205"/>
+          <a:ext cx="798765" cy="437"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -2748,129 +2641,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>83747</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>104220</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>131178</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>37663</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="79" name="グループ化 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99878BA7-B0D0-55B6-FEFC-BD32DB027B9E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="14388565" y="10252675"/>
-          <a:ext cx="1259704" cy="1076443"/>
-          <a:chOff x="8953378" y="4086224"/>
-          <a:chExt cx="1279899" cy="1146532"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="84" name="図 83">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C436A0-0ECC-22E0-33EF-797D0BA7C6FB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9220200" y="4086224"/>
-            <a:ext cx="733425" cy="733425"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="テキスト ボックス 84">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B537F1FC-C05A-7243-2426-4F5F467F110C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8953378" y="4886364"/>
-            <a:ext cx="1279899" cy="346392"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>バックエンドサーバー</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2964,6 +2734,9 @@
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCECFF"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="bg1">
@@ -3506,7 +3279,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3523,165 +3296,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>155863</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>207818</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1371326" cy="359815"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B6BAD2F-3E5E-4D8A-AD4A-D95722EDA89D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5974772" y="207818"/>
-          <a:ext cx="1371326" cy="359815"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="99CCFF">
-            <a:alpha val="49804"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>S020:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ログイン画面</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>180758</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>225136</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1760024" cy="359815"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E09EE86A-8362-4780-8592-9D7CE2409755}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12563258" y="225136"/>
-          <a:ext cx="1760024" cy="359815"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="99CCFF">
-            <a:alpha val="49804"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>S010:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>アカウント作成画面 </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>52</xdr:col>
@@ -4472,6 +4086,9 @@
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCECFF"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="bg1">
@@ -4732,15 +4349,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>89</xdr:col>
-      <xdr:colOff>175602</xdr:colOff>
+      <xdr:colOff>176638</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>36087</xdr:rowOff>
+      <xdr:rowOff>36086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>89</xdr:col>
-      <xdr:colOff>211388</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>119091</xdr:rowOff>
+      <xdr:colOff>197745</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4753,13 +4370,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="43" idx="2"/>
-          <a:endCxn id="50" idx="0"/>
+          <a:endCxn id="30" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="21444698" y="6493401"/>
-          <a:ext cx="654504" cy="35786"/>
+          <a:off x="21180941" y="6819935"/>
+          <a:ext cx="767327" cy="21107"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -4786,129 +4403,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>87</xdr:col>
-      <xdr:colOff>70486</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>119093</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>117917</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>52536</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="49" name="グループ化 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF680CD-05D2-4B5A-B198-FC55B1394D7B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="21164031" y="6838548"/>
-          <a:ext cx="1259704" cy="1076443"/>
-          <a:chOff x="8953378" y="4086224"/>
-          <a:chExt cx="1279899" cy="1146532"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="50" name="図 49">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C880993-D7C5-02E8-2694-516DC6733E36}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9220200" y="4086224"/>
-            <a:ext cx="733425" cy="733425"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="テキスト ボックス 50">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F135D8-0466-4272-4C83-5FB4037B18A1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8953378" y="4886364"/>
-            <a:ext cx="1279899" cy="346392"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>バックエンドサーバー</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -5002,6 +4496,9 @@
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCECFF"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="bg1">
@@ -6071,13 +5568,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>158490</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>106611</xdr:rowOff>
+      <xdr:colOff>131485</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>120511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>175349</xdr:colOff>
+      <xdr:colOff>175348</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>121228</xdr:rowOff>
     </xdr:to>
@@ -6092,13 +5589,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="119" idx="1"/>
-          <a:endCxn id="38" idx="2"/>
+          <a:endCxn id="13" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="3268225" y="8444195"/>
-          <a:ext cx="586117" cy="16859"/>
+          <a:off x="3018841" y="8596894"/>
+          <a:ext cx="994630" cy="43863"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -6130,9 +5627,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>228690</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>37663</xdr:rowOff>
+      <xdr:colOff>189462</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
@@ -6151,13 +5648,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="114" idx="1"/>
-          <a:endCxn id="85" idx="2"/>
+          <a:endCxn id="26" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="14759464" y="11588071"/>
-          <a:ext cx="620428" cy="102522"/>
+          <a:off x="14451853" y="11931774"/>
+          <a:ext cx="918578" cy="139490"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -6189,13 +5686,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>89</xdr:col>
-      <xdr:colOff>209985</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>52535</xdr:rowOff>
+      <xdr:colOff>197746</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>145360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>89</xdr:col>
-      <xdr:colOff>215429</xdr:colOff>
+      <xdr:colOff>208856</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>138544</xdr:rowOff>
     </xdr:to>
@@ -6209,14 +5706,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="51" idx="2"/>
+          <a:stCxn id="30" idx="2"/>
           <a:endCxn id="120" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="21557657" y="8145773"/>
-          <a:ext cx="467009" cy="5444"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="21186556" y="8336180"/>
+          <a:ext cx="788315" cy="11110"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -6243,6 +5740,562 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>182216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>75289</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>120511</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C87F4B-CB15-4246-87BE-C4EA571C263A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2955708" y="7570895"/>
+          <a:ext cx="1283367" cy="754723"/>
+          <a:chOff x="8991601" y="4086224"/>
+          <a:chExt cx="1259704" cy="733425"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="図 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC99F80-6DC2-BA83-3129-5DA9ECF1DA29}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9220200" y="4086224"/>
+            <a:ext cx="733425" cy="733425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="テキスト ボックス 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949CE8A4-86E1-5008-9431-A35D472F7E33}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8991601" y="4200525"/>
+            <a:ext cx="1259704" cy="325217"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="30196"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:effectLst>
+                  <a:glow rad="101600">
+                    <a:schemeClr val="bg1">
+                      <a:alpha val="60000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>バックエンドサーバー</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>133266</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="グループ化 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B461B3F-E4F2-4264-89CB-B3B84DC5375B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14525329" y="11087455"/>
+          <a:ext cx="1283366" cy="749400"/>
+          <a:chOff x="8991601" y="4086224"/>
+          <a:chExt cx="1259704" cy="733425"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="26" name="図 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F6097A-5972-C89B-56CB-05F863327DDE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9220200" y="4086224"/>
+            <a:ext cx="733425" cy="733425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="テキスト ボックス 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88A6124-B691-FA75-5C7A-4C211CBC45F1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8991601" y="4200525"/>
+            <a:ext cx="1259704" cy="325217"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="30196"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:effectLst>
+                  <a:glow rad="101600">
+                    <a:schemeClr val="bg1">
+                      <a:alpha val="60000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>バックエンドサーバー</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>82825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>141549</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>145361</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="グループ化 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3555148D-DD8C-4638-99AC-6AC055F9DF81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="21391611" y="7396962"/>
+          <a:ext cx="1283367" cy="749399"/>
+          <a:chOff x="8991601" y="4086224"/>
+          <a:chExt cx="1259704" cy="733425"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="30" name="図 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB31DDB-22B1-6104-47B1-49A0A02E3D3A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9220200" y="4086224"/>
+            <a:ext cx="733425" cy="733425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="テキスト ボックス 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97B5380-B46E-8336-4ED1-14652FDB05F5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8991601" y="4200525"/>
+            <a:ext cx="1259704" cy="325217"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="30196"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:effectLst>
+                  <a:glow rad="101600">
+                    <a:schemeClr val="bg1">
+                      <a:alpha val="60000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>バックエンドサーバー</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>191173</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>191732</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="四角形: 角を丸くする 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC957AE-94EC-6B49-9007-09F9DB749747}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5994096" y="186113"/>
+          <a:ext cx="1693078" cy="400042"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>S020:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン画面 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>672</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>241787</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="四角形: 角を丸くする 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D1120C-1D2B-96FA-7FE5-50234403EB5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12815460" y="186113"/>
+          <a:ext cx="1933635" cy="400042"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>S010:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アカウント作成画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6520,80 +6573,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>168730</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>84364</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1174255" cy="359815"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328929EB-87A6-05EA-14E7-C757781E29C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3978730" y="1036864"/>
-          <a:ext cx="1174255" cy="359815"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="99CCFF">
-            <a:alpha val="49804"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>{ID:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面名称</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>}</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -7003,6 +6982,9 @@
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCECFF"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="bg1">
@@ -7344,201 +7326,6 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>140155</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>46264</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>121103</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>179614</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3EB2BB-EF40-1637-9609-87C47A81608D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4902655" y="1951264"/>
-          <a:ext cx="1647824" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="7030A0"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>92531</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>17688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>161609</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95256</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="グループ化 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E825C4E0-06D2-A58D-BE1D-8D5FDA6FC0DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8665031" y="3827688"/>
-          <a:ext cx="1259704" cy="1030068"/>
-          <a:chOff x="8991601" y="4086224"/>
-          <a:chExt cx="1259704" cy="1077693"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="17" name="図 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD57740-F4B2-3D5F-834E-A76BB18103E0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9220200" y="4086224"/>
-            <a:ext cx="733425" cy="733425"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="テキスト ボックス 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E8B339-91CE-3075-116C-1B06EEAA4ECF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8991601" y="4838700"/>
-            <a:ext cx="1259704" cy="325217"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>バックエンドサーバー</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>227695</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -7589,6 +7376,222 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>69077</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC58A5C0-0C00-4F7C-A949-682C551A3E2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8572500" y="4000500"/>
+          <a:ext cx="1259702" cy="733425"/>
+          <a:chOff x="8991601" y="4086224"/>
+          <a:chExt cx="1259704" cy="733425"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="図 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BD65DA-FC42-DB56-1578-E089548733A6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9220200" y="4086224"/>
+            <a:ext cx="733425" cy="733425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="テキスト ボックス 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D86D3A0-FFBC-9F04-9CB9-D20F8CDABDCC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8991601" y="4200525"/>
+            <a:ext cx="1259704" cy="325217"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="30196"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:effectLst>
+                  <a:glow rad="101600">
+                    <a:schemeClr val="bg1">
+                      <a:alpha val="60000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>バックエンドサーバー</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180973</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157844</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="四角形: 角を丸くする 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06716740-4C69-4C38-BD26-CC6B71B8B95A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4962525" y="2028825"/>
+          <a:ext cx="1647823" cy="529319"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>{ID:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>画面名称</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7821,14 +7824,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5546875" customWidth="1"/>
     <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="4" max="5" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7845,7 +7848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -7862,42 +7865,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -7914,19 +7917,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EC4E20-36D4-48CB-A0EF-D13A80763775}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
@@ -7945,7 +7948,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
@@ -7975,9 +7978,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D8219D-936F-469F-BEE2-6DDDCA5CA043}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
@@ -7986,18 +7991,18 @@
     <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="30.0546875" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="40.6640625" customWidth="1"/>
     <col min="10" max="10" width="24.88671875" customWidth="1"/>
     <col min="11" max="11" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
@@ -8026,7 +8031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -8050,11 +8055,11 @@
         <v>28</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -8078,11 +8083,11 @@
         <v>36</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -8103,14 +8108,14 @@
         <v>37</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -8134,11 +8139,11 @@
         <v>38</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -8156,17 +8161,17 @@
         <v>F005</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -8177,7 +8182,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -8188,7 +8193,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -8209,11 +8214,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B25A43-FD43-48C9-8DF7-DA5F91EB871C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AU6" sqref="AU6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
